--- a/pred_ohlcv/54_21/2019-10-29 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 BZNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>868970.9875907241</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>868980.9875907241</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>821309.2215907241</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>821509.2215907241</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>243072.2215907241</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1249443.469409276</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1249203.469409276</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1249213.469409276</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1249213.469409276</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1221013.469409276</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1343819.333409276</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1343819.333409276</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1343809.333409276</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1445153.519409276</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1445153.519409276</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1445135.337609276</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1445117.155809276</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1560144.315509276</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1675568.759309276</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1677883.451709276</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1677873.451709276</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1864641.244709276</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1864641.244709276</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1864641.244709276</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1864641.244709276</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1864623.986309276</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1869623.986309276</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1869613.986309276</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1877220.818409276</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1877220.818409276</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1963340.818409276</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1963340.818409276</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1868683.631509276</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1901360.631509276</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1896223.631509276</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-849773.0325092763</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>719102.8598907237</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>28333.88529072376</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>28298.88529072376</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>28298.88529072376</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-252879.4591692291</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-266777.9731692291</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-266377.9731692291</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-230984.3710692291</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-964038.646869229</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-964038.646869229</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-916315.2201692291</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-916315.2201692291</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-742471.388869229</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-828658.140869229</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-630655.1154692289</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-619879.253469229</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-669879.253469229</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-619080.117469229</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-620602.208369229</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-430897.974969229</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-433938.0597692289</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-434008.2310692289</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-434086.1401692289</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-434067.9583692289</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-435795.1377692289</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-588031.3953692289</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-612611.4679692289</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-878865.3125077408</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-991188.4572077408</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1076198.281007741</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1102304.502207741</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2717963.498707741</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2715846.44370774</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2715836.44370774</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 BZNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 BZNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>868970.9875907241</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>868980.9875907241</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>821309.2215907241</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>821509.2215907241</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>243062.2215907241</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>243072.2215907241</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>240562.7965907241</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1249443.469409276</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1249203.469409276</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1963340.818409276</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1868683.631509276</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1901360.631509276</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1901460.631509276</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1896223.631509276</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-849773.0325092763</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>719102.8598907237</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>28333.88529072376</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>28298.88529072376</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>28298.88529072376</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-269214.0089692291</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-252879.4591692291</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-266777.9731692291</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-230994.3710692291</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-230976.1892692291</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-231743.4090692291</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-231933.4090692291</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-258900.0215692291</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-928900.267969229</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-928688.721169229</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-968886.646869229</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-964038.646869229</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-964038.646869229</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-916315.2201692291</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-916315.2201692291</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-628924.663669229</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-628909.685269229</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-630655.1154692289</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-619879.253469229</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-669879.253469229</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-619080.117469229</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-620602.208369229</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-430897.974969229</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-430879.7931692289</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-433938.0597692289</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-434008.2310692289</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-434086.1401692289</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-434067.9583692289</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-435795.1377692289</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-588031.3953692289</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-612611.4679692289</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-652457.4679692289</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-664387.4679692289</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-921595.3976692288</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-878865.3125077408</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-991188.4572077408</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1076198.281007741</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1102304.502207741</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1102480.974407741</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2717963.498707741</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2715846.44370774</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2715836.44370774</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
